--- a/converter/src/test/resources/conversions_to.xlsx
+++ b/converter/src/test/resources/conversions_to.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\kotlin\AlfaConverter\converter\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E32C98-AD79-448E-BE08-2B3ACCAC81FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58206A5-EB3E-49F4-9E44-D99B2442C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="2550" windowWidth="15525" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24810" yWindow="2400" windowWidth="15525" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>binded 2 here</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>merged</t>
+  </si>
+  <si>
+    <t>whoooo?</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +375,7 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,6 +393,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
